--- a/notebook/smok (version 1).xlsx
+++ b/notebook/smok (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\DA7\Projects\Capstone-NSS-DA7\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1F3CCB-BA01-4E6F-8BD6-1569122E13B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAACEC9-BB7C-4A5F-8FCE-011C57686E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="132" yWindow="1116" windowWidth="22692" windowHeight="10860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_smok.xlsxTable1" hidden="1">Table1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_smok.xlsxTable11" hidden="1">Table1[]</definedName>
     <definedName name="INIT">A!$A$1</definedName>
     <definedName name="PRINT">A!$A$1:$CP$103</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">A!$A$1:$CP$103</definedName>
@@ -29,10 +29,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +73,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_smok.xlsxTable1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_smok.xlsxTable11"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="182">
   <si>
     <t>[Data are based on household interviews of a sample of the civilian noninstitutionalized population]</t>
   </si>
@@ -665,6 +664,18 @@
   <si>
     <t>41.0</t>
   </si>
+  <si>
+    <t>Count of 1997</t>
+  </si>
+  <si>
+    <t>Count of 1998</t>
+  </si>
+  <si>
+    <t>Count of 1999</t>
+  </si>
+  <si>
+    <t>Count of 2000</t>
+  </si>
 </sst>
 </file>
 
@@ -738,7 +749,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -775,123 +786,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -954,15 +854,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1007,6 +898,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1548,6 +1440,1953 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$X$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EC2-4A68-BEC0-DA7F299A5297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black or African American only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5EC2-4A68-BEC0-DA7F299A5297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>American Indian or Alaska Native </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5EC2-4A68-BEC0-DA7F299A5297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0">
+                  <c:v>11.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EC2-4A68-BEC0-DA7F299A5297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multiple races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0">
+                  <c:v>23.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5EC2-4A68-BEC0-DA7F299A5297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hispanic or Latino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5EC2-4A68-BEC0-DA7F299A5297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="797928415"/>
+        <c:axId val="797927167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="797928415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797927167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="797927167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797928415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3C976C-792C-5E8D-A929-A9565C263214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrew" refreshedDate="44908.890213541665" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{538EB796-089F-40E6-B1EA-E388C0379522}">
   <cacheSource type="worksheet">
@@ -1555,10 +3394,23 @@
   </cacheSource>
   <cacheFields count="24">
     <cacheField name="Characteristic" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="6">
+        <s v="White "/>
+        <s v="Black or African American only"/>
+        <s v="American Indian or Alaska Native "/>
+        <s v="Asian"/>
+        <s v="Multiple races"/>
+        <s v="Hispanic or Latino"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="1997" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="26.2" maxValue="37"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="26.2" maxValue="37" count="5">
+        <n v="27.2"/>
+        <n v="32.200000000000003"/>
+        <n v="37"/>
+        <s v="…"/>
+        <n v="26.2"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="1998" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="24.7" maxValue="41"/>
@@ -1567,7 +3419,14 @@
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="24.1" maxValue="30.5"/>
     </cacheField>
     <cacheField name="2000" numFmtId="164">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="20.9" maxValue="40.6"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="20.9" maxValue="40.6" count="6">
+        <n v="25.7"/>
+        <n v="26.2"/>
+        <s v="*27.5"/>
+        <n v="20.9"/>
+        <n v="40.6"/>
+        <n v="24"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="2001" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="19" maxValue="37.299999999999997"/>
@@ -1733,11 +3592,11 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
   <r>
-    <s v="White "/>
-    <n v="27.2"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="26.3"/>
     <n v="25.3"/>
-    <n v="25.7"/>
+    <x v="0"/>
     <n v="25"/>
     <n v="25"/>
     <n v="24"/>
@@ -1759,11 +3618,11 @@
     <n v="15.3"/>
   </r>
   <r>
-    <s v="Black or African American only"/>
-    <n v="32.200000000000003"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="29"/>
     <n v="28.6"/>
-    <n v="26.2"/>
+    <x v="1"/>
     <n v="27.6"/>
     <n v="27"/>
     <n v="25.7"/>
@@ -1785,11 +3644,11 @@
     <n v="17.2"/>
   </r>
   <r>
-    <s v="American Indian or Alaska Native "/>
-    <n v="37"/>
+    <x v="2"/>
+    <x v="2"/>
     <n v="41"/>
     <s v="*36.3"/>
-    <s v="*27.5"/>
+    <x v="2"/>
     <n v="31.8"/>
     <n v="35.299999999999997"/>
     <n v="38.200000000000003"/>
@@ -1811,11 +3670,11 @@
     <n v="16.5"/>
   </r>
   <r>
-    <s v="Asian"/>
-    <s v="…"/>
+    <x v="3"/>
+    <x v="3"/>
     <s v="…"/>
     <n v="24.9"/>
-    <n v="20.9"/>
+    <x v="3"/>
     <n v="19"/>
     <n v="18.7"/>
     <n v="17.3"/>
@@ -1837,11 +3696,11 @@
     <n v="11.8"/>
   </r>
   <r>
-    <s v="Multiple races"/>
-    <s v="…"/>
+    <x v="4"/>
+    <x v="3"/>
     <s v="…"/>
     <n v="30.5"/>
-    <n v="40.6"/>
+    <x v="4"/>
     <n v="37.299999999999997"/>
     <n v="34"/>
     <n v="28.4"/>
@@ -1863,11 +3722,11 @@
     <n v="23.4"/>
   </r>
   <r>
-    <s v="Hispanic or Latino"/>
-    <n v="26.2"/>
+    <x v="5"/>
+    <x v="4"/>
     <n v="24.7"/>
     <n v="24.1"/>
-    <n v="24"/>
+    <x v="5"/>
     <n v="21.7"/>
     <n v="22.8"/>
     <n v="22.1"/>
@@ -1892,7 +3751,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E3E108C3-9E51-4F35-97BE-A37625732D1F}" name="PivotTable66" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E3E108C3-9E51-4F35-97BE-A37625732D1F}" name="PivotTable66" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -2042,14 +3901,43 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B13C29CE-23FD-4BE8-845D-2AC70A47CF4E}" name="PivotTable65" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B13C29CE-23FD-4BE8-845D-2AC70A47CF4E}" name="PivotTable65" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
@@ -2070,6 +3958,55 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
   </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Count of 1997" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of 1998" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of 1999" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of 2000" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2385,212 +4322,212 @@
       <selection activeCell="A100" sqref="A4:XFD100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="16" customWidth="1"/>
-    <col min="2" max="17" width="10.28515625" style="16" customWidth="1"/>
-    <col min="18" max="48" width="10.28515625" style="17" customWidth="1"/>
-    <col min="49" max="64" width="10.28515625" style="16" customWidth="1"/>
-    <col min="65" max="66" width="10.28515625" style="17" customWidth="1"/>
-    <col min="67" max="94" width="10.28515625" style="16" customWidth="1"/>
-    <col min="95" max="16384" width="12.7109375" style="16"/>
+    <col min="1" max="1" width="34.33203125" style="16" customWidth="1"/>
+    <col min="2" max="17" width="10.33203125" style="16" customWidth="1"/>
+    <col min="18" max="48" width="10.33203125" style="17" customWidth="1"/>
+    <col min="49" max="64" width="10.33203125" style="16" customWidth="1"/>
+    <col min="65" max="66" width="10.33203125" style="17" customWidth="1"/>
+    <col min="67" max="94" width="10.33203125" style="16" customWidth="1"/>
+    <col min="95" max="16384" width="12.6640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:119" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="42"/>
-      <c r="BJ1" s="42"/>
-      <c r="BK1" s="42"/>
-      <c r="BL1" s="42"/>
-      <c r="BM1" s="42"/>
-      <c r="BN1" s="42"/>
-      <c r="BO1" s="42"/>
-      <c r="BP1" s="42"/>
-      <c r="BQ1" s="42"/>
-      <c r="BR1" s="42"/>
-      <c r="BS1" s="42"/>
-      <c r="BT1" s="42"/>
-      <c r="BU1" s="42"/>
-      <c r="BV1" s="42"/>
-      <c r="BW1" s="42"/>
-      <c r="BX1" s="42"/>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42"/>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="42"/>
-      <c r="CC1" s="42"/>
-      <c r="CD1" s="42"/>
-      <c r="CE1" s="42"/>
-      <c r="CF1" s="42"/>
-      <c r="CG1" s="42"/>
-      <c r="CH1" s="42"/>
-      <c r="CI1" s="42"/>
-      <c r="CJ1" s="42"/>
-      <c r="CK1" s="42"/>
-      <c r="CL1" s="42"/>
-      <c r="CM1" s="42"/>
-      <c r="CN1" s="42"/>
-      <c r="CO1" s="42"/>
-      <c r="CP1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="33"/>
+      <c r="CA1" s="33"/>
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="33"/>
+      <c r="CE1" s="33"/>
+      <c r="CF1" s="33"/>
+      <c r="CG1" s="33"/>
+      <c r="CH1" s="33"/>
+      <c r="CI1" s="33"/>
+      <c r="CJ1" s="33"/>
+      <c r="CK1" s="33"/>
+      <c r="CL1" s="33"/>
+      <c r="CM1" s="33"/>
+      <c r="CN1" s="33"/>
+      <c r="CO1" s="33"/>
+      <c r="CP1" s="33"/>
     </row>
-    <row r="2" spans="1:119" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:119" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43"/>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
-      <c r="BX2" s="43"/>
-      <c r="BY2" s="43"/>
-      <c r="BZ2" s="43"/>
-      <c r="CA2" s="43"/>
-      <c r="CB2" s="43"/>
-      <c r="CC2" s="43"/>
-      <c r="CD2" s="43"/>
-      <c r="CE2" s="43"/>
-      <c r="CF2" s="43"/>
-      <c r="CG2" s="43"/>
-      <c r="CH2" s="43"/>
-      <c r="CI2" s="43"/>
-      <c r="CJ2" s="43"/>
-      <c r="CK2" s="43"/>
-      <c r="CL2" s="43"/>
-      <c r="CM2" s="43"/>
-      <c r="CN2" s="43"/>
-      <c r="CO2" s="43"/>
-      <c r="CP2" s="43"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="34"/>
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BO2" s="34"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34"/>
+      <c r="CG2" s="34"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="34"/>
+      <c r="CO2" s="34"/>
+      <c r="CP2" s="34"/>
       <c r="CQ2" s="5"/>
       <c r="CR2" s="5"/>
       <c r="CS2" s="5"/>
@@ -2617,208 +4554,208 @@
       <c r="DN2" s="5"/>
       <c r="DO2" s="5"/>
     </row>
-    <row r="3" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44"/>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="44"/>
-      <c r="BO3" s="44"/>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="44"/>
-      <c r="BR3" s="44"/>
-      <c r="BS3" s="44"/>
-      <c r="BT3" s="44"/>
-      <c r="BU3" s="44"/>
-      <c r="BV3" s="44"/>
-      <c r="BW3" s="44"/>
-      <c r="BX3" s="44"/>
-      <c r="BY3" s="44"/>
-      <c r="BZ3" s="44"/>
-      <c r="CA3" s="44"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="44"/>
-      <c r="CD3" s="44"/>
-      <c r="CE3" s="44"/>
-      <c r="CF3" s="44"/>
-      <c r="CG3" s="44"/>
-      <c r="CH3" s="44"/>
-      <c r="CI3" s="44"/>
-      <c r="CJ3" s="44"/>
-      <c r="CK3" s="44"/>
-      <c r="CL3" s="44"/>
-      <c r="CM3" s="44"/>
-      <c r="CN3" s="44"/>
-      <c r="CO3" s="44"/>
-      <c r="CP3" s="44"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="35"/>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="35"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
+      <c r="BB3" s="35"/>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="35"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="35"/>
+      <c r="BH3" s="35"/>
+      <c r="BI3" s="35"/>
+      <c r="BJ3" s="35"/>
+      <c r="BK3" s="35"/>
+      <c r="BL3" s="35"/>
+      <c r="BM3" s="35"/>
+      <c r="BN3" s="35"/>
+      <c r="BO3" s="35"/>
+      <c r="BP3" s="35"/>
+      <c r="BQ3" s="35"/>
+      <c r="BR3" s="35"/>
+      <c r="BS3" s="35"/>
+      <c r="BT3" s="35"/>
+      <c r="BU3" s="35"/>
+      <c r="BV3" s="35"/>
+      <c r="BW3" s="35"/>
+      <c r="BX3" s="35"/>
+      <c r="BY3" s="35"/>
+      <c r="BZ3" s="35"/>
+      <c r="CA3" s="35"/>
+      <c r="CB3" s="35"/>
+      <c r="CC3" s="35"/>
+      <c r="CD3" s="35"/>
+      <c r="CE3" s="35"/>
+      <c r="CF3" s="35"/>
+      <c r="CG3" s="35"/>
+      <c r="CH3" s="35"/>
+      <c r="CI3" s="35"/>
+      <c r="CJ3" s="35"/>
+      <c r="CK3" s="35"/>
+      <c r="CL3" s="35"/>
+      <c r="CM3" s="35"/>
+      <c r="CN3" s="35"/>
+      <c r="CO3" s="35"/>
+      <c r="CP3" s="35"/>
     </row>
-    <row r="4" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
       <c r="AV4" s="24"/>
-      <c r="AW4" s="47" t="s">
+      <c r="AW4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="47"/>
-      <c r="BK4" s="47"/>
-      <c r="BL4" s="47"/>
-      <c r="BM4" s="47"/>
-      <c r="BN4" s="47"/>
-      <c r="BO4" s="47"/>
-      <c r="BP4" s="47"/>
-      <c r="BQ4" s="47"/>
-      <c r="BR4" s="47"/>
-      <c r="BS4" s="47"/>
-      <c r="BT4" s="47"/>
-      <c r="BU4" s="47"/>
-      <c r="BV4" s="47"/>
-      <c r="BW4" s="47"/>
-      <c r="BX4" s="47"/>
-      <c r="BY4" s="47"/>
-      <c r="BZ4" s="47"/>
-      <c r="CA4" s="47"/>
-      <c r="CB4" s="47"/>
-      <c r="CC4" s="47"/>
-      <c r="CD4" s="47"/>
-      <c r="CE4" s="47"/>
-      <c r="CF4" s="47"/>
-      <c r="CG4" s="47"/>
-      <c r="CH4" s="47"/>
-      <c r="CI4" s="47"/>
-      <c r="CJ4" s="47"/>
-      <c r="CK4" s="47"/>
-      <c r="CL4" s="47"/>
-      <c r="CM4" s="47"/>
-      <c r="CN4" s="47"/>
-      <c r="CO4" s="47"/>
-      <c r="CP4" s="47"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38"/>
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38"/>
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
     </row>
-    <row r="5" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
       <c r="B5" s="10">
         <v>1997</v>
       </c>
@@ -3097,107 +5034,107 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="50"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="50"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="50"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="50"/>
-      <c r="AU6" s="50"/>
-      <c r="AV6" s="50"/>
-      <c r="AW6" s="50"/>
-      <c r="AX6" s="50"/>
-      <c r="AY6" s="50"/>
-      <c r="AZ6" s="50"/>
-      <c r="BA6" s="50"/>
-      <c r="BB6" s="50"/>
-      <c r="BC6" s="50"/>
-      <c r="BD6" s="50"/>
-      <c r="BE6" s="50"/>
-      <c r="BF6" s="50"/>
-      <c r="BG6" s="50"/>
-      <c r="BH6" s="50"/>
-      <c r="BI6" s="50"/>
-      <c r="BJ6" s="50"/>
-      <c r="BK6" s="50"/>
-      <c r="BL6" s="50"/>
-      <c r="BM6" s="50"/>
-      <c r="BN6" s="50"/>
-      <c r="BO6" s="50"/>
-      <c r="BP6" s="50"/>
-      <c r="BQ6" s="50"/>
-      <c r="BR6" s="50"/>
-      <c r="BS6" s="50"/>
-      <c r="BT6" s="50"/>
-      <c r="BU6" s="50"/>
-      <c r="BV6" s="50"/>
-      <c r="BW6" s="50"/>
-      <c r="BX6" s="50"/>
-      <c r="BY6" s="50"/>
-      <c r="BZ6" s="50"/>
-      <c r="CA6" s="50"/>
-      <c r="CB6" s="50"/>
-      <c r="CC6" s="50"/>
-      <c r="CD6" s="50"/>
-      <c r="CE6" s="50"/>
-      <c r="CF6" s="50"/>
-      <c r="CG6" s="50"/>
-      <c r="CH6" s="50"/>
-      <c r="CI6" s="50"/>
-      <c r="CJ6" s="50"/>
-      <c r="CK6" s="50"/>
-      <c r="CL6" s="50"/>
-      <c r="CM6" s="50"/>
-      <c r="CN6" s="50"/>
-      <c r="CO6" s="50"/>
-      <c r="CP6" s="50"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="41"/>
+      <c r="AY6" s="41"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="41"/>
+      <c r="BC6" s="41"/>
+      <c r="BD6" s="41"/>
+      <c r="BE6" s="41"/>
+      <c r="BF6" s="41"/>
+      <c r="BG6" s="41"/>
+      <c r="BH6" s="41"/>
+      <c r="BI6" s="41"/>
+      <c r="BJ6" s="41"/>
+      <c r="BK6" s="41"/>
+      <c r="BL6" s="41"/>
+      <c r="BM6" s="41"/>
+      <c r="BN6" s="41"/>
+      <c r="BO6" s="41"/>
+      <c r="BP6" s="41"/>
+      <c r="BQ6" s="41"/>
+      <c r="BR6" s="41"/>
+      <c r="BS6" s="41"/>
+      <c r="BT6" s="41"/>
+      <c r="BU6" s="41"/>
+      <c r="BV6" s="41"/>
+      <c r="BW6" s="41"/>
+      <c r="BX6" s="41"/>
+      <c r="BY6" s="41"/>
+      <c r="BZ6" s="41"/>
+      <c r="CA6" s="41"/>
+      <c r="CB6" s="41"/>
+      <c r="CC6" s="41"/>
+      <c r="CD6" s="41"/>
+      <c r="CE6" s="41"/>
+      <c r="CF6" s="41"/>
+      <c r="CG6" s="41"/>
+      <c r="CH6" s="41"/>
+      <c r="CI6" s="41"/>
+      <c r="CJ6" s="41"/>
+      <c r="CK6" s="41"/>
+      <c r="CL6" s="41"/>
+      <c r="CM6" s="41"/>
+      <c r="CN6" s="41"/>
+      <c r="CO6" s="41"/>
+      <c r="CP6" s="41"/>
     </row>
-    <row r="7" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>127</v>
       </c>
@@ -3479,7 +5416,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>128</v>
       </c>
@@ -3577,7 +5514,7 @@
       <c r="CO8" s="3"/>
       <c r="CP8" s="3"/>
     </row>
-    <row r="9" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3859,7 +5796,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -4141,7 +6078,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -4423,7 +6360,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="12" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -4705,7 +6642,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +6924,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="14" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>124</v>
       </c>
@@ -5269,7 +7206,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>129</v>
       </c>
@@ -5367,7 +7304,7 @@
       <c r="CO15" s="3"/>
       <c r="CP15" s="3"/>
     </row>
-    <row r="16" spans="1:119" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:119" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -5649,7 +7586,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
@@ -5931,7 +7868,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -6213,7 +8150,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
@@ -6495,7 +8432,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -6777,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>130</v>
       </c>
@@ -6875,7 +8812,7 @@
       <c r="CO21" s="3"/>
       <c r="CP21" s="3"/>
     </row>
-    <row r="22" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -6973,7 +8910,7 @@
       <c r="CO22" s="3"/>
       <c r="CP22" s="3"/>
     </row>
-    <row r="23" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
@@ -7255,7 +9192,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="24" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>16</v>
       </c>
@@ -7353,7 +9290,7 @@
       <c r="CO24" s="3"/>
       <c r="CP24" s="3"/>
     </row>
-    <row r="25" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>5</v>
       </c>
@@ -7635,7 +9572,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="26" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>6</v>
       </c>
@@ -7917,7 +9854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -8015,7 +9952,7 @@
       <c r="CO27" s="3"/>
       <c r="CP27" s="3"/>
     </row>
-    <row r="28" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>11</v>
       </c>
@@ -8297,7 +10234,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="29" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
@@ -8395,7 +10332,7 @@
       <c r="CO29" s="3"/>
       <c r="CP29" s="3"/>
     </row>
-    <row r="30" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>5</v>
       </c>
@@ -8677,7 +10614,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>6</v>
       </c>
@@ -8959,7 +10896,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>18</v>
       </c>
@@ -9057,7 +10994,7 @@
       <c r="CO32" s="3"/>
       <c r="CP32" s="3"/>
     </row>
-    <row r="33" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>11</v>
       </c>
@@ -9339,7 +11276,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>16</v>
       </c>
@@ -9437,7 +11374,7 @@
       <c r="CO34" s="3"/>
       <c r="CP34" s="3"/>
     </row>
-    <row r="35" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>5</v>
       </c>
@@ -9719,7 +11656,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>6</v>
       </c>
@@ -10001,7 +11938,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="37" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -10099,7 +12036,7 @@
       <c r="CO37" s="3"/>
       <c r="CP37" s="3"/>
     </row>
-    <row r="38" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>11</v>
       </c>
@@ -10381,7 +12318,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="39" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>16</v>
       </c>
@@ -10479,7 +12416,7 @@
       <c r="CO39" s="3"/>
       <c r="CP39" s="3"/>
     </row>
-    <row r="40" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>5</v>
       </c>
@@ -10761,7 +12698,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>6</v>
       </c>
@@ -11043,7 +12980,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="42" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
@@ -11141,7 +13078,7 @@
       <c r="CO42" s="3"/>
       <c r="CP42" s="3"/>
     </row>
-    <row r="43" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>11</v>
       </c>
@@ -11423,7 +13360,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>16</v>
       </c>
@@ -11521,7 +13458,7 @@
       <c r="CO44" s="3"/>
       <c r="CP44" s="3"/>
     </row>
-    <row r="45" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>5</v>
       </c>
@@ -11803,7 +13740,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>6</v>
       </c>
@@ -12085,107 +14022,107 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="47" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="48"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="48"/>
-      <c r="Z47" s="48"/>
-      <c r="AA47" s="48"/>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="48"/>
-      <c r="AF47" s="48"/>
-      <c r="AG47" s="48"/>
-      <c r="AH47" s="48"/>
-      <c r="AI47" s="48"/>
-      <c r="AJ47" s="48"/>
-      <c r="AK47" s="48"/>
-      <c r="AL47" s="48"/>
-      <c r="AM47" s="48"/>
-      <c r="AN47" s="48"/>
-      <c r="AO47" s="48"/>
-      <c r="AP47" s="48"/>
-      <c r="AQ47" s="48"/>
-      <c r="AR47" s="48"/>
-      <c r="AS47" s="48"/>
-      <c r="AT47" s="48"/>
-      <c r="AU47" s="48"/>
-      <c r="AV47" s="48"/>
-      <c r="AW47" s="48"/>
-      <c r="AX47" s="48"/>
-      <c r="AY47" s="48"/>
-      <c r="AZ47" s="48"/>
-      <c r="BA47" s="48"/>
-      <c r="BB47" s="48"/>
-      <c r="BC47" s="48"/>
-      <c r="BD47" s="48"/>
-      <c r="BE47" s="48"/>
-      <c r="BF47" s="48"/>
-      <c r="BG47" s="48"/>
-      <c r="BH47" s="48"/>
-      <c r="BI47" s="48"/>
-      <c r="BJ47" s="48"/>
-      <c r="BK47" s="48"/>
-      <c r="BL47" s="48"/>
-      <c r="BM47" s="48"/>
-      <c r="BN47" s="48"/>
-      <c r="BO47" s="48"/>
-      <c r="BP47" s="48"/>
-      <c r="BQ47" s="48"/>
-      <c r="BR47" s="48"/>
-      <c r="BS47" s="48"/>
-      <c r="BT47" s="48"/>
-      <c r="BU47" s="48"/>
-      <c r="BV47" s="48"/>
-      <c r="BW47" s="48"/>
-      <c r="BX47" s="48"/>
-      <c r="BY47" s="48"/>
-      <c r="BZ47" s="48"/>
-      <c r="CA47" s="48"/>
-      <c r="CB47" s="48"/>
-      <c r="CC47" s="48"/>
-      <c r="CD47" s="48"/>
-      <c r="CE47" s="48"/>
-      <c r="CF47" s="48"/>
-      <c r="CG47" s="48"/>
-      <c r="CH47" s="48"/>
-      <c r="CI47" s="48"/>
-      <c r="CJ47" s="48"/>
-      <c r="CK47" s="48"/>
-      <c r="CL47" s="48"/>
-      <c r="CM47" s="48"/>
-      <c r="CN47" s="48"/>
-      <c r="CO47" s="48"/>
-      <c r="CP47" s="48"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39"/>
+      <c r="AM47" s="39"/>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="39"/>
+      <c r="AP47" s="39"/>
+      <c r="AQ47" s="39"/>
+      <c r="AR47" s="39"/>
+      <c r="AS47" s="39"/>
+      <c r="AT47" s="39"/>
+      <c r="AU47" s="39"/>
+      <c r="AV47" s="39"/>
+      <c r="AW47" s="39"/>
+      <c r="AX47" s="39"/>
+      <c r="AY47" s="39"/>
+      <c r="AZ47" s="39"/>
+      <c r="BA47" s="39"/>
+      <c r="BB47" s="39"/>
+      <c r="BC47" s="39"/>
+      <c r="BD47" s="39"/>
+      <c r="BE47" s="39"/>
+      <c r="BF47" s="39"/>
+      <c r="BG47" s="39"/>
+      <c r="BH47" s="39"/>
+      <c r="BI47" s="39"/>
+      <c r="BJ47" s="39"/>
+      <c r="BK47" s="39"/>
+      <c r="BL47" s="39"/>
+      <c r="BM47" s="39"/>
+      <c r="BN47" s="39"/>
+      <c r="BO47" s="39"/>
+      <c r="BP47" s="39"/>
+      <c r="BQ47" s="39"/>
+      <c r="BR47" s="39"/>
+      <c r="BS47" s="39"/>
+      <c r="BT47" s="39"/>
+      <c r="BU47" s="39"/>
+      <c r="BV47" s="39"/>
+      <c r="BW47" s="39"/>
+      <c r="BX47" s="39"/>
+      <c r="BY47" s="39"/>
+      <c r="BZ47" s="39"/>
+      <c r="CA47" s="39"/>
+      <c r="CB47" s="39"/>
+      <c r="CC47" s="39"/>
+      <c r="CD47" s="39"/>
+      <c r="CE47" s="39"/>
+      <c r="CF47" s="39"/>
+      <c r="CG47" s="39"/>
+      <c r="CH47" s="39"/>
+      <c r="CI47" s="39"/>
+      <c r="CJ47" s="39"/>
+      <c r="CK47" s="39"/>
+      <c r="CL47" s="39"/>
+      <c r="CM47" s="39"/>
+      <c r="CN47" s="39"/>
+      <c r="CO47" s="39"/>
+      <c r="CP47" s="39"/>
     </row>
-    <row r="48" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>127</v>
       </c>
@@ -12467,7 +14404,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
@@ -12749,7 +14686,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -13031,7 +14968,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -13313,7 +15250,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -13595,7 +15532,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -13877,7 +15814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>10</v>
       </c>
@@ -14159,7 +16096,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="55" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>124</v>
       </c>
@@ -14441,7 +16378,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="56" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>129</v>
       </c>
@@ -14539,7 +16476,7 @@
       <c r="CO56" s="3"/>
       <c r="CP56" s="3"/>
     </row>
-    <row r="57" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>11</v>
       </c>
@@ -14821,7 +16758,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>12</v>
       </c>
@@ -15103,7 +17040,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="59" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>13</v>
       </c>
@@ -15385,7 +17322,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="60" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>5</v>
       </c>
@@ -15667,7 +17604,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>6</v>
       </c>
@@ -15949,7 +17886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
         <v>131</v>
       </c>
@@ -16047,7 +17984,7 @@
       <c r="CO62" s="3"/>
       <c r="CP62" s="3"/>
     </row>
-    <row r="63" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
@@ -16329,7 +18266,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
@@ -16611,7 +18548,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -16893,7 +18830,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="66" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -17273,7 +19210,7 @@
       <c r="CO67" s="3"/>
       <c r="CP67" s="3"/>
     </row>
-    <row r="68" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>25</v>
       </c>
@@ -17371,7 +19308,7 @@
       <c r="CO68" s="3"/>
       <c r="CP68" s="3"/>
     </row>
-    <row r="69" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>21</v>
       </c>
@@ -17653,7 +19590,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="70" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>22</v>
       </c>
@@ -17935,7 +19872,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>23</v>
       </c>
@@ -18217,7 +20154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>24</v>
       </c>
@@ -18499,7 +20436,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -18597,7 +20534,7 @@
       <c r="CO73" s="3"/>
       <c r="CP73" s="3"/>
     </row>
-    <row r="74" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>26</v>
       </c>
@@ -18695,7 +20632,7 @@
       <c r="CO74" s="3"/>
       <c r="CP74" s="3"/>
     </row>
-    <row r="75" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>21</v>
       </c>
@@ -18977,7 +20914,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="76" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>22</v>
       </c>
@@ -19259,7 +21196,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="77" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>23</v>
       </c>
@@ -19541,7 +21478,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="78" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>24</v>
       </c>
@@ -19823,7 +21760,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>27</v>
       </c>
@@ -19921,7 +21858,7 @@
       <c r="CO79" s="3"/>
       <c r="CP79" s="3"/>
     </row>
-    <row r="80" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>21</v>
       </c>
@@ -20203,7 +22140,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>22</v>
       </c>
@@ -20485,7 +22422,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="82" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>23</v>
       </c>
@@ -20767,7 +22704,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="83" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>24</v>
       </c>
@@ -21049,7 +22986,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="84" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
         <v>132</v>
       </c>
@@ -21229,7 +23166,7 @@
       <c r="CO85" s="3"/>
       <c r="CP85" s="3"/>
     </row>
-    <row r="86" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>28</v>
       </c>
@@ -21319,7 +23256,7 @@
       <c r="CO86" s="3"/>
       <c r="CP86" s="3"/>
     </row>
-    <row r="87" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>11</v>
       </c>
@@ -21601,7 +23538,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="88" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>16</v>
       </c>
@@ -21699,7 +23636,7 @@
       <c r="CO88" s="3"/>
       <c r="CP88" s="3"/>
     </row>
-    <row r="89" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>5</v>
       </c>
@@ -21981,7 +23918,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="90" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>6</v>
       </c>
@@ -22263,7 +24200,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="91" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>29</v>
       </c>
@@ -22361,7 +24298,7 @@
       <c r="CO91" s="3"/>
       <c r="CP91" s="3"/>
     </row>
-    <row r="92" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>11</v>
       </c>
@@ -22643,7 +24580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>16</v>
       </c>
@@ -22741,7 +24678,7 @@
       <c r="CO93" s="3"/>
       <c r="CP93" s="3"/>
     </row>
-    <row r="94" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>5</v>
       </c>
@@ -23023,7 +24960,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="95" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>6</v>
       </c>
@@ -23305,7 +25242,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>30</v>
       </c>
@@ -23403,7 +25340,7 @@
       <c r="CO96" s="3"/>
       <c r="CP96" s="3"/>
     </row>
-    <row r="97" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>11</v>
       </c>
@@ -23685,7 +25622,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="98" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>16</v>
       </c>
@@ -23783,7 +25720,7 @@
       <c r="CO98" s="3"/>
       <c r="CP98" s="3"/>
     </row>
-    <row r="99" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>5</v>
       </c>
@@ -24065,7 +26002,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:94" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:94" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>6</v>
       </c>
@@ -24347,518 +26284,518 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:94" s="15" customFormat="1" ht="115.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="49" t="s">
+    <row r="101" spans="1:94" s="15" customFormat="1" ht="115.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="B101" s="49"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="49"/>
-      <c r="K101" s="49"/>
-      <c r="L101" s="49"/>
-      <c r="M101" s="49"/>
-      <c r="N101" s="49"/>
-      <c r="O101" s="49"/>
-      <c r="P101" s="49"/>
-      <c r="Q101" s="49"/>
-      <c r="R101" s="49"/>
-      <c r="S101" s="49"/>
-      <c r="T101" s="49"/>
-      <c r="U101" s="49"/>
-      <c r="V101" s="49"/>
-      <c r="W101" s="49"/>
-      <c r="X101" s="49"/>
-      <c r="Y101" s="49"/>
-      <c r="Z101" s="49"/>
-      <c r="AA101" s="49"/>
-      <c r="AB101" s="49"/>
-      <c r="AC101" s="49"/>
-      <c r="AD101" s="49"/>
-      <c r="AE101" s="49"/>
-      <c r="AF101" s="49"/>
-      <c r="AG101" s="49"/>
-      <c r="AH101" s="49"/>
-      <c r="AI101" s="49"/>
-      <c r="AJ101" s="49"/>
-      <c r="AK101" s="49"/>
-      <c r="AL101" s="49"/>
-      <c r="AM101" s="49"/>
-      <c r="AN101" s="49"/>
-      <c r="AO101" s="49"/>
-      <c r="AP101" s="49"/>
-      <c r="AQ101" s="49"/>
-      <c r="AR101" s="49"/>
-      <c r="AS101" s="49"/>
-      <c r="AT101" s="49"/>
-      <c r="AU101" s="49"/>
-      <c r="AV101" s="49"/>
-      <c r="AW101" s="49"/>
-      <c r="AX101" s="49"/>
-      <c r="AY101" s="49"/>
-      <c r="AZ101" s="49"/>
-      <c r="BA101" s="49"/>
-      <c r="BB101" s="49"/>
-      <c r="BC101" s="49"/>
-      <c r="BD101" s="49"/>
-      <c r="BE101" s="49"/>
-      <c r="BF101" s="49"/>
-      <c r="BG101" s="49"/>
-      <c r="BH101" s="49"/>
-      <c r="BI101" s="49"/>
-      <c r="BJ101" s="49"/>
-      <c r="BK101" s="49"/>
-      <c r="BL101" s="49"/>
-      <c r="BM101" s="49"/>
-      <c r="BN101" s="49"/>
-      <c r="BO101" s="49"/>
-      <c r="BP101" s="49"/>
-      <c r="BQ101" s="49"/>
-      <c r="BR101" s="49"/>
-      <c r="BS101" s="49"/>
-      <c r="BT101" s="49"/>
-      <c r="BU101" s="49"/>
-      <c r="BV101" s="49"/>
-      <c r="BW101" s="49"/>
-      <c r="BX101" s="49"/>
-      <c r="BY101" s="49"/>
-      <c r="BZ101" s="49"/>
-      <c r="CA101" s="49"/>
-      <c r="CB101" s="49"/>
-      <c r="CC101" s="49"/>
-      <c r="CD101" s="49"/>
-      <c r="CE101" s="49"/>
-      <c r="CF101" s="49"/>
-      <c r="CG101" s="49"/>
-      <c r="CH101" s="49"/>
-      <c r="CI101" s="49"/>
-      <c r="CJ101" s="49"/>
-      <c r="CK101" s="49"/>
-      <c r="CL101" s="49"/>
-      <c r="CM101" s="49"/>
-      <c r="CN101" s="49"/>
-      <c r="CO101" s="49"/>
-      <c r="CP101" s="49"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="40"/>
+      <c r="L101" s="40"/>
+      <c r="M101" s="40"/>
+      <c r="N101" s="40"/>
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
+      <c r="Q101" s="40"/>
+      <c r="R101" s="40"/>
+      <c r="S101" s="40"/>
+      <c r="T101" s="40"/>
+      <c r="U101" s="40"/>
+      <c r="V101" s="40"/>
+      <c r="W101" s="40"/>
+      <c r="X101" s="40"/>
+      <c r="Y101" s="40"/>
+      <c r="Z101" s="40"/>
+      <c r="AA101" s="40"/>
+      <c r="AB101" s="40"/>
+      <c r="AC101" s="40"/>
+      <c r="AD101" s="40"/>
+      <c r="AE101" s="40"/>
+      <c r="AF101" s="40"/>
+      <c r="AG101" s="40"/>
+      <c r="AH101" s="40"/>
+      <c r="AI101" s="40"/>
+      <c r="AJ101" s="40"/>
+      <c r="AK101" s="40"/>
+      <c r="AL101" s="40"/>
+      <c r="AM101" s="40"/>
+      <c r="AN101" s="40"/>
+      <c r="AO101" s="40"/>
+      <c r="AP101" s="40"/>
+      <c r="AQ101" s="40"/>
+      <c r="AR101" s="40"/>
+      <c r="AS101" s="40"/>
+      <c r="AT101" s="40"/>
+      <c r="AU101" s="40"/>
+      <c r="AV101" s="40"/>
+      <c r="AW101" s="40"/>
+      <c r="AX101" s="40"/>
+      <c r="AY101" s="40"/>
+      <c r="AZ101" s="40"/>
+      <c r="BA101" s="40"/>
+      <c r="BB101" s="40"/>
+      <c r="BC101" s="40"/>
+      <c r="BD101" s="40"/>
+      <c r="BE101" s="40"/>
+      <c r="BF101" s="40"/>
+      <c r="BG101" s="40"/>
+      <c r="BH101" s="40"/>
+      <c r="BI101" s="40"/>
+      <c r="BJ101" s="40"/>
+      <c r="BK101" s="40"/>
+      <c r="BL101" s="40"/>
+      <c r="BM101" s="40"/>
+      <c r="BN101" s="40"/>
+      <c r="BO101" s="40"/>
+      <c r="BP101" s="40"/>
+      <c r="BQ101" s="40"/>
+      <c r="BR101" s="40"/>
+      <c r="BS101" s="40"/>
+      <c r="BT101" s="40"/>
+      <c r="BU101" s="40"/>
+      <c r="BV101" s="40"/>
+      <c r="BW101" s="40"/>
+      <c r="BX101" s="40"/>
+      <c r="BY101" s="40"/>
+      <c r="BZ101" s="40"/>
+      <c r="CA101" s="40"/>
+      <c r="CB101" s="40"/>
+      <c r="CC101" s="40"/>
+      <c r="CD101" s="40"/>
+      <c r="CE101" s="40"/>
+      <c r="CF101" s="40"/>
+      <c r="CG101" s="40"/>
+      <c r="CH101" s="40"/>
+      <c r="CI101" s="40"/>
+      <c r="CJ101" s="40"/>
+      <c r="CK101" s="40"/>
+      <c r="CL101" s="40"/>
+      <c r="CM101" s="40"/>
+      <c r="CN101" s="40"/>
+      <c r="CO101" s="40"/>
+      <c r="CP101" s="40"/>
     </row>
-    <row r="102" spans="1:94" s="2" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="41" t="s">
+    <row r="102" spans="1:94" s="2" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-      <c r="R102" s="41"/>
-      <c r="S102" s="41"/>
-      <c r="T102" s="41"/>
-      <c r="U102" s="41"/>
-      <c r="V102" s="41"/>
-      <c r="W102" s="41"/>
-      <c r="X102" s="41"/>
-      <c r="Y102" s="41"/>
-      <c r="Z102" s="41"/>
-      <c r="AA102" s="41"/>
-      <c r="AB102" s="41"/>
-      <c r="AC102" s="41"/>
-      <c r="AD102" s="41"/>
-      <c r="AE102" s="41"/>
-      <c r="AF102" s="41"/>
-      <c r="AG102" s="41"/>
-      <c r="AH102" s="41"/>
-      <c r="AI102" s="41"/>
-      <c r="AJ102" s="41"/>
-      <c r="AK102" s="41"/>
-      <c r="AL102" s="41"/>
-      <c r="AM102" s="41"/>
-      <c r="AN102" s="41"/>
-      <c r="AO102" s="41"/>
-      <c r="AP102" s="41"/>
-      <c r="AQ102" s="41"/>
-      <c r="AR102" s="41"/>
-      <c r="AS102" s="41"/>
-      <c r="AT102" s="41"/>
-      <c r="AU102" s="41"/>
-      <c r="AV102" s="41"/>
-      <c r="AW102" s="41"/>
-      <c r="AX102" s="41"/>
-      <c r="AY102" s="41"/>
-      <c r="AZ102" s="41"/>
-      <c r="BA102" s="41"/>
-      <c r="BB102" s="41"/>
-      <c r="BC102" s="41"/>
-      <c r="BD102" s="41"/>
-      <c r="BE102" s="41"/>
-      <c r="BF102" s="41"/>
-      <c r="BG102" s="41"/>
-      <c r="BH102" s="41"/>
-      <c r="BI102" s="41"/>
-      <c r="BJ102" s="41"/>
-      <c r="BK102" s="41"/>
-      <c r="BL102" s="41"/>
-      <c r="BM102" s="41"/>
-      <c r="BN102" s="41"/>
-      <c r="BO102" s="41"/>
-      <c r="BP102" s="41"/>
-      <c r="BQ102" s="41"/>
-      <c r="BR102" s="41"/>
-      <c r="BS102" s="41"/>
-      <c r="BT102" s="41"/>
-      <c r="BU102" s="41"/>
-      <c r="BV102" s="41"/>
-      <c r="BW102" s="41"/>
-      <c r="BX102" s="41"/>
-      <c r="BY102" s="41"/>
-      <c r="BZ102" s="41"/>
-      <c r="CA102" s="41"/>
-      <c r="CB102" s="41"/>
-      <c r="CC102" s="41"/>
-      <c r="CD102" s="41"/>
-      <c r="CE102" s="41"/>
-      <c r="CF102" s="41"/>
-      <c r="CG102" s="41"/>
-      <c r="CH102" s="41"/>
-      <c r="CI102" s="41"/>
-      <c r="CJ102" s="41"/>
-      <c r="CK102" s="41"/>
-      <c r="CL102" s="41"/>
-      <c r="CM102" s="41"/>
-      <c r="CN102" s="41"/>
-      <c r="CO102" s="41"/>
-      <c r="CP102" s="41"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
+      <c r="Q102" s="32"/>
+      <c r="R102" s="32"/>
+      <c r="S102" s="32"/>
+      <c r="T102" s="32"/>
+      <c r="U102" s="32"/>
+      <c r="V102" s="32"/>
+      <c r="W102" s="32"/>
+      <c r="X102" s="32"/>
+      <c r="Y102" s="32"/>
+      <c r="Z102" s="32"/>
+      <c r="AA102" s="32"/>
+      <c r="AB102" s="32"/>
+      <c r="AC102" s="32"/>
+      <c r="AD102" s="32"/>
+      <c r="AE102" s="32"/>
+      <c r="AF102" s="32"/>
+      <c r="AG102" s="32"/>
+      <c r="AH102" s="32"/>
+      <c r="AI102" s="32"/>
+      <c r="AJ102" s="32"/>
+      <c r="AK102" s="32"/>
+      <c r="AL102" s="32"/>
+      <c r="AM102" s="32"/>
+      <c r="AN102" s="32"/>
+      <c r="AO102" s="32"/>
+      <c r="AP102" s="32"/>
+      <c r="AQ102" s="32"/>
+      <c r="AR102" s="32"/>
+      <c r="AS102" s="32"/>
+      <c r="AT102" s="32"/>
+      <c r="AU102" s="32"/>
+      <c r="AV102" s="32"/>
+      <c r="AW102" s="32"/>
+      <c r="AX102" s="32"/>
+      <c r="AY102" s="32"/>
+      <c r="AZ102" s="32"/>
+      <c r="BA102" s="32"/>
+      <c r="BB102" s="32"/>
+      <c r="BC102" s="32"/>
+      <c r="BD102" s="32"/>
+      <c r="BE102" s="32"/>
+      <c r="BF102" s="32"/>
+      <c r="BG102" s="32"/>
+      <c r="BH102" s="32"/>
+      <c r="BI102" s="32"/>
+      <c r="BJ102" s="32"/>
+      <c r="BK102" s="32"/>
+      <c r="BL102" s="32"/>
+      <c r="BM102" s="32"/>
+      <c r="BN102" s="32"/>
+      <c r="BO102" s="32"/>
+      <c r="BP102" s="32"/>
+      <c r="BQ102" s="32"/>
+      <c r="BR102" s="32"/>
+      <c r="BS102" s="32"/>
+      <c r="BT102" s="32"/>
+      <c r="BU102" s="32"/>
+      <c r="BV102" s="32"/>
+      <c r="BW102" s="32"/>
+      <c r="BX102" s="32"/>
+      <c r="BY102" s="32"/>
+      <c r="BZ102" s="32"/>
+      <c r="CA102" s="32"/>
+      <c r="CB102" s="32"/>
+      <c r="CC102" s="32"/>
+      <c r="CD102" s="32"/>
+      <c r="CE102" s="32"/>
+      <c r="CF102" s="32"/>
+      <c r="CG102" s="32"/>
+      <c r="CH102" s="32"/>
+      <c r="CI102" s="32"/>
+      <c r="CJ102" s="32"/>
+      <c r="CK102" s="32"/>
+      <c r="CL102" s="32"/>
+      <c r="CM102" s="32"/>
+      <c r="CN102" s="32"/>
+      <c r="CO102" s="32"/>
+      <c r="CP102" s="32"/>
     </row>
-    <row r="103" spans="1:94" s="2" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="41" t="s">
+    <row r="103" spans="1:94" s="2" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="41"/>
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
-      <c r="Q103" s="41"/>
-      <c r="R103" s="41"/>
-      <c r="S103" s="41"/>
-      <c r="T103" s="41"/>
-      <c r="U103" s="41"/>
-      <c r="V103" s="41"/>
-      <c r="W103" s="41"/>
-      <c r="X103" s="41"/>
-      <c r="Y103" s="41"/>
-      <c r="Z103" s="41"/>
-      <c r="AA103" s="41"/>
-      <c r="AB103" s="41"/>
-      <c r="AC103" s="41"/>
-      <c r="AD103" s="41"/>
-      <c r="AE103" s="41"/>
-      <c r="AF103" s="41"/>
-      <c r="AG103" s="41"/>
-      <c r="AH103" s="41"/>
-      <c r="AI103" s="41"/>
-      <c r="AJ103" s="41"/>
-      <c r="AK103" s="41"/>
-      <c r="AL103" s="41"/>
-      <c r="AM103" s="41"/>
-      <c r="AN103" s="41"/>
-      <c r="AO103" s="41"/>
-      <c r="AP103" s="41"/>
-      <c r="AQ103" s="41"/>
-      <c r="AR103" s="41"/>
-      <c r="AS103" s="41"/>
-      <c r="AT103" s="41"/>
-      <c r="AU103" s="41"/>
-      <c r="AV103" s="41"/>
-      <c r="AW103" s="41"/>
-      <c r="AX103" s="41"/>
-      <c r="AY103" s="41"/>
-      <c r="AZ103" s="41"/>
-      <c r="BA103" s="41"/>
-      <c r="BB103" s="41"/>
-      <c r="BC103" s="41"/>
-      <c r="BD103" s="41"/>
-      <c r="BE103" s="41"/>
-      <c r="BF103" s="41"/>
-      <c r="BG103" s="41"/>
-      <c r="BH103" s="41"/>
-      <c r="BI103" s="41"/>
-      <c r="BJ103" s="41"/>
-      <c r="BK103" s="41"/>
-      <c r="BL103" s="41"/>
-      <c r="BM103" s="41"/>
-      <c r="BN103" s="41"/>
-      <c r="BO103" s="41"/>
-      <c r="BP103" s="41"/>
-      <c r="BQ103" s="41"/>
-      <c r="BR103" s="41"/>
-      <c r="BS103" s="41"/>
-      <c r="BT103" s="41"/>
-      <c r="BU103" s="41"/>
-      <c r="BV103" s="41"/>
-      <c r="BW103" s="41"/>
-      <c r="BX103" s="41"/>
-      <c r="BY103" s="41"/>
-      <c r="BZ103" s="41"/>
-      <c r="CA103" s="41"/>
-      <c r="CB103" s="41"/>
-      <c r="CC103" s="41"/>
-      <c r="CD103" s="41"/>
-      <c r="CE103" s="41"/>
-      <c r="CF103" s="41"/>
-      <c r="CG103" s="41"/>
-      <c r="CH103" s="41"/>
-      <c r="CI103" s="41"/>
-      <c r="CJ103" s="41"/>
-      <c r="CK103" s="41"/>
-      <c r="CL103" s="41"/>
-      <c r="CM103" s="41"/>
-      <c r="CN103" s="41"/>
-      <c r="CO103" s="41"/>
-      <c r="CP103" s="41"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="32"/>
+      <c r="R103" s="32"/>
+      <c r="S103" s="32"/>
+      <c r="T103" s="32"/>
+      <c r="U103" s="32"/>
+      <c r="V103" s="32"/>
+      <c r="W103" s="32"/>
+      <c r="X103" s="32"/>
+      <c r="Y103" s="32"/>
+      <c r="Z103" s="32"/>
+      <c r="AA103" s="32"/>
+      <c r="AB103" s="32"/>
+      <c r="AC103" s="32"/>
+      <c r="AD103" s="32"/>
+      <c r="AE103" s="32"/>
+      <c r="AF103" s="32"/>
+      <c r="AG103" s="32"/>
+      <c r="AH103" s="32"/>
+      <c r="AI103" s="32"/>
+      <c r="AJ103" s="32"/>
+      <c r="AK103" s="32"/>
+      <c r="AL103" s="32"/>
+      <c r="AM103" s="32"/>
+      <c r="AN103" s="32"/>
+      <c r="AO103" s="32"/>
+      <c r="AP103" s="32"/>
+      <c r="AQ103" s="32"/>
+      <c r="AR103" s="32"/>
+      <c r="AS103" s="32"/>
+      <c r="AT103" s="32"/>
+      <c r="AU103" s="32"/>
+      <c r="AV103" s="32"/>
+      <c r="AW103" s="32"/>
+      <c r="AX103" s="32"/>
+      <c r="AY103" s="32"/>
+      <c r="AZ103" s="32"/>
+      <c r="BA103" s="32"/>
+      <c r="BB103" s="32"/>
+      <c r="BC103" s="32"/>
+      <c r="BD103" s="32"/>
+      <c r="BE103" s="32"/>
+      <c r="BF103" s="32"/>
+      <c r="BG103" s="32"/>
+      <c r="BH103" s="32"/>
+      <c r="BI103" s="32"/>
+      <c r="BJ103" s="32"/>
+      <c r="BK103" s="32"/>
+      <c r="BL103" s="32"/>
+      <c r="BM103" s="32"/>
+      <c r="BN103" s="32"/>
+      <c r="BO103" s="32"/>
+      <c r="BP103" s="32"/>
+      <c r="BQ103" s="32"/>
+      <c r="BR103" s="32"/>
+      <c r="BS103" s="32"/>
+      <c r="BT103" s="32"/>
+      <c r="BU103" s="32"/>
+      <c r="BV103" s="32"/>
+      <c r="BW103" s="32"/>
+      <c r="BX103" s="32"/>
+      <c r="BY103" s="32"/>
+      <c r="BZ103" s="32"/>
+      <c r="CA103" s="32"/>
+      <c r="CB103" s="32"/>
+      <c r="CC103" s="32"/>
+      <c r="CD103" s="32"/>
+      <c r="CE103" s="32"/>
+      <c r="CF103" s="32"/>
+      <c r="CG103" s="32"/>
+      <c r="CH103" s="32"/>
+      <c r="CI103" s="32"/>
+      <c r="CJ103" s="32"/>
+      <c r="CK103" s="32"/>
+      <c r="CL103" s="32"/>
+      <c r="CM103" s="32"/>
+      <c r="CN103" s="32"/>
+      <c r="CO103" s="32"/>
+      <c r="CP103" s="32"/>
     </row>
-    <row r="104" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
       <c r="AV104" s="3"/>
       <c r="CO104" s="3"/>
       <c r="CP104" s="3"/>
     </row>
-    <row r="105" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
       <c r="AV105" s="3"/>
       <c r="CO105" s="3"/>
       <c r="CP105" s="3"/>
     </row>
-    <row r="106" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
       <c r="AV106" s="3"/>
       <c r="CO106" s="3"/>
       <c r="CP106" s="3"/>
     </row>
-    <row r="107" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
       <c r="AV107" s="3"/>
       <c r="CO107" s="3"/>
       <c r="CP107" s="3"/>
     </row>
-    <row r="108" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
       <c r="AV108" s="3"/>
       <c r="CO108" s="3"/>
       <c r="CP108" s="3"/>
     </row>
-    <row r="109" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
       <c r="AV109" s="3"/>
       <c r="CO109" s="3"/>
       <c r="CP109" s="3"/>
     </row>
-    <row r="110" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
       <c r="AV110" s="3"/>
       <c r="CO110" s="3"/>
       <c r="CP110" s="3"/>
     </row>
-    <row r="111" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
       <c r="AV111" s="3"/>
       <c r="CO111" s="3"/>
       <c r="CP111" s="3"/>
     </row>
-    <row r="112" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
       <c r="AV112" s="3"/>
       <c r="CO112" s="3"/>
       <c r="CP112" s="3"/>
     </row>
-    <row r="113" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="113" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
       <c r="AV113" s="3"/>
       <c r="CO113" s="3"/>
       <c r="CP113" s="3"/>
     </row>
-    <row r="114" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="114" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
       <c r="AV114" s="3"/>
       <c r="CO114" s="3"/>
       <c r="CP114" s="3"/>
     </row>
-    <row r="115" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="115" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
       <c r="AV115" s="3"/>
       <c r="CO115" s="3"/>
       <c r="CP115" s="3"/>
     </row>
-    <row r="116" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="116" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT116" s="3"/>
       <c r="AU116" s="3"/>
       <c r="AV116" s="3"/>
       <c r="CO116" s="3"/>
       <c r="CP116" s="3"/>
     </row>
-    <row r="117" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="117" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT117" s="3"/>
       <c r="AU117" s="3"/>
       <c r="AV117" s="3"/>
       <c r="CO117" s="3"/>
       <c r="CP117" s="3"/>
     </row>
-    <row r="118" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="118" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT118" s="3"/>
       <c r="AU118" s="3"/>
       <c r="AV118" s="3"/>
       <c r="CO118" s="3"/>
       <c r="CP118" s="3"/>
     </row>
-    <row r="119" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="119" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT119" s="3"/>
       <c r="AU119" s="3"/>
       <c r="AV119" s="3"/>
       <c r="CO119" s="3"/>
       <c r="CP119" s="3"/>
     </row>
-    <row r="120" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="120" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT120" s="3"/>
       <c r="AU120" s="3"/>
       <c r="AV120" s="3"/>
       <c r="CO120" s="3"/>
       <c r="CP120" s="3"/>
     </row>
-    <row r="121" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="121" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT121" s="3"/>
       <c r="AU121" s="3"/>
       <c r="AV121" s="3"/>
       <c r="CO121" s="3"/>
       <c r="CP121" s="3"/>
     </row>
-    <row r="122" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="122" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
       <c r="AV122" s="3"/>
       <c r="CO122" s="3"/>
       <c r="CP122" s="3"/>
     </row>
-    <row r="123" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="123" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT123" s="3"/>
       <c r="AU123" s="3"/>
       <c r="AV123" s="3"/>
       <c r="CO123" s="3"/>
       <c r="CP123" s="3"/>
     </row>
-    <row r="124" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="124" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
       <c r="AV124" s="3"/>
       <c r="CO124" s="3"/>
       <c r="CP124" s="3"/>
     </row>
-    <row r="125" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="125" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
       <c r="AV125" s="3"/>
       <c r="CO125" s="3"/>
       <c r="CP125" s="3"/>
     </row>
-    <row r="126" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="126" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
       <c r="AV126" s="3"/>
       <c r="CO126" s="3"/>
       <c r="CP126" s="3"/>
     </row>
-    <row r="127" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="127" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT127" s="3"/>
       <c r="AU127" s="3"/>
       <c r="AV127" s="3"/>
       <c r="CO127" s="3"/>
       <c r="CP127" s="3"/>
     </row>
-    <row r="128" spans="46:94" x14ac:dyDescent="0.25">
+    <row r="128" spans="46:94" x14ac:dyDescent="0.3">
       <c r="AT128" s="3"/>
       <c r="AU128" s="3"/>
       <c r="AV128" s="3"/>
       <c r="CO128" s="3"/>
       <c r="CP128" s="3"/>
     </row>
-    <row r="129" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT129" s="3"/>
       <c r="AU129" s="3"/>
       <c r="AV129" s="3"/>
       <c r="CO129" s="3"/>
       <c r="CP129" s="3"/>
     </row>
-    <row r="130" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT130" s="3"/>
       <c r="AU130" s="3"/>
       <c r="AV130" s="3"/>
       <c r="CO130" s="3"/>
       <c r="CP130" s="3"/>
     </row>
-    <row r="131" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT131" s="4"/>
       <c r="AU131" s="4"/>
       <c r="AV131" s="3"/>
       <c r="CO131" s="4"/>
       <c r="CP131" s="4"/>
     </row>
-    <row r="132" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT132" s="8"/>
       <c r="AU132" s="8"/>
       <c r="AV132" s="25"/>
       <c r="CO132" s="15"/>
       <c r="CP132" s="15"/>
     </row>
-    <row r="133" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT133" s="9"/>
       <c r="AU133" s="9"/>
       <c r="AV133" s="9"/>
       <c r="CO133" s="2"/>
       <c r="CP133" s="2"/>
     </row>
-    <row r="134" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:94" x14ac:dyDescent="0.3">
       <c r="AT134" s="9"/>
       <c r="AU134" s="9"/>
       <c r="AV134" s="9"/>
       <c r="CO134" s="2"/>
       <c r="CP134" s="2"/>
     </row>
-    <row r="136" spans="1:94" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:94" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -24934,275 +26871,275 @@
       <c r="CO136" s="16"/>
       <c r="CP136" s="16"/>
     </row>
-    <row r="167" spans="93:94" x14ac:dyDescent="0.25">
+    <row r="167" spans="93:94" x14ac:dyDescent="0.3">
       <c r="CO167" s="18"/>
       <c r="CP167" s="18"/>
     </row>
-    <row r="1054" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1054" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1054" s="19"/>
       <c r="HU1054" s="19"/>
       <c r="HV1054" s="19"/>
       <c r="HW1054" s="19"/>
     </row>
-    <row r="1055" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1055" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1055" s="19"/>
       <c r="HU1055" s="19"/>
       <c r="HV1055" s="19"/>
       <c r="HW1055" s="19"/>
     </row>
-    <row r="1059" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1059" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1059" s="19"/>
       <c r="HU1059" s="19"/>
       <c r="HV1059" s="19"/>
       <c r="HW1059" s="19"/>
     </row>
-    <row r="1060" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1060" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1060" s="19"/>
       <c r="HU1060" s="19"/>
       <c r="HV1060" s="19"/>
       <c r="HW1060" s="19"/>
     </row>
-    <row r="1062" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1062" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1062" s="19"/>
       <c r="HU1062" s="19"/>
       <c r="HV1062" s="19"/>
       <c r="HW1062" s="19"/>
     </row>
-    <row r="1063" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1063" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1063" s="19"/>
       <c r="HU1063" s="19"/>
       <c r="HV1063" s="19"/>
       <c r="HW1063" s="19"/>
     </row>
-    <row r="1064" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1064" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1064" s="19"/>
       <c r="HU1064" s="19"/>
       <c r="HV1064" s="19"/>
       <c r="HW1064" s="19"/>
     </row>
-    <row r="1065" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1065" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1065" s="19"/>
       <c r="HU1065" s="19"/>
       <c r="HV1065" s="19"/>
       <c r="HW1065" s="19"/>
     </row>
-    <row r="1066" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1066" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1066" s="19"/>
       <c r="HU1066" s="19"/>
       <c r="HV1066" s="19"/>
       <c r="HW1066" s="19"/>
     </row>
-    <row r="1069" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1069" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1069" s="19"/>
       <c r="HU1069" s="19"/>
       <c r="HV1069" s="19"/>
       <c r="HW1069" s="19"/>
     </row>
-    <row r="1070" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1070" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1070" s="19"/>
       <c r="HU1070" s="19"/>
       <c r="HV1070" s="19"/>
       <c r="HW1070" s="19"/>
     </row>
-    <row r="1072" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1072" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1072" s="19"/>
       <c r="HU1072" s="19"/>
       <c r="HV1072" s="19"/>
       <c r="HW1072" s="19"/>
     </row>
-    <row r="1073" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1073" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1073" s="19"/>
       <c r="HU1073" s="19"/>
       <c r="HV1073" s="19"/>
       <c r="HW1073" s="19"/>
     </row>
-    <row r="1074" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1074" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1074" s="19"/>
       <c r="HU1074" s="19"/>
       <c r="HV1074" s="19"/>
       <c r="HW1074" s="19"/>
     </row>
-    <row r="1075" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1075" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1075" s="19"/>
       <c r="HU1075" s="19"/>
       <c r="HV1075" s="19"/>
       <c r="HW1075" s="19"/>
     </row>
-    <row r="1076" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1076" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1076" s="19"/>
       <c r="HU1076" s="19"/>
       <c r="HV1076" s="19"/>
       <c r="HW1076" s="19"/>
     </row>
-    <row r="1079" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1079" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1079" s="19"/>
       <c r="HU1079" s="19"/>
       <c r="HV1079" s="19"/>
       <c r="HW1079" s="19"/>
     </row>
-    <row r="1080" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1080" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1080" s="19"/>
       <c r="HU1080" s="19"/>
       <c r="HV1080" s="19"/>
       <c r="HW1080" s="19"/>
     </row>
-    <row r="1082" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1082" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1082" s="19"/>
       <c r="HU1082" s="19"/>
       <c r="HV1082" s="19"/>
       <c r="HW1082" s="19"/>
     </row>
-    <row r="1083" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1083" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1083" s="19"/>
       <c r="HU1083" s="19"/>
       <c r="HV1083" s="19"/>
       <c r="HW1083" s="19"/>
     </row>
-    <row r="1084" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1084" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1084" s="19"/>
       <c r="HU1084" s="19"/>
       <c r="HV1084" s="19"/>
       <c r="HW1084" s="19"/>
     </row>
-    <row r="1085" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1085" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1085" s="19"/>
       <c r="HU1085" s="19"/>
       <c r="HV1085" s="19"/>
       <c r="HW1085" s="19"/>
     </row>
-    <row r="1086" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1086" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1086" s="19"/>
       <c r="HU1086" s="19"/>
       <c r="HV1086" s="19"/>
       <c r="HW1086" s="19"/>
     </row>
-    <row r="1090" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1090" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1090" s="19"/>
       <c r="HU1090" s="19"/>
       <c r="HV1090" s="19"/>
       <c r="HW1090" s="19"/>
     </row>
-    <row r="1091" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1091" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1091" s="19"/>
       <c r="HU1091" s="19"/>
       <c r="HV1091" s="19"/>
       <c r="HW1091" s="19"/>
     </row>
-    <row r="1093" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1093" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1093" s="19"/>
       <c r="HU1093" s="19"/>
       <c r="HV1093" s="19"/>
       <c r="HW1093" s="19"/>
     </row>
-    <row r="1094" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1094" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1094" s="19"/>
       <c r="HU1094" s="19"/>
       <c r="HV1094" s="19"/>
       <c r="HW1094" s="19"/>
     </row>
-    <row r="1095" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1095" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1095" s="19"/>
       <c r="HU1095" s="19"/>
       <c r="HV1095" s="19"/>
       <c r="HW1095" s="19"/>
     </row>
-    <row r="1096" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1096" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1096" s="19"/>
       <c r="HU1096" s="19"/>
       <c r="HV1096" s="19"/>
       <c r="HW1096" s="19"/>
     </row>
-    <row r="1097" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1097" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1097" s="19"/>
       <c r="HU1097" s="19"/>
       <c r="HV1097" s="19"/>
       <c r="HW1097" s="19"/>
     </row>
-    <row r="1100" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1100" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1100" s="19"/>
       <c r="HU1100" s="19"/>
       <c r="HV1100" s="19"/>
       <c r="HW1100" s="19"/>
     </row>
-    <row r="1101" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1101" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1101" s="19"/>
       <c r="HU1101" s="19"/>
       <c r="HV1101" s="19"/>
       <c r="HW1101" s="19"/>
     </row>
-    <row r="1103" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1103" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1103" s="19"/>
       <c r="HU1103" s="19"/>
       <c r="HV1103" s="19"/>
       <c r="HW1103" s="19"/>
     </row>
-    <row r="1104" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1104" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1104" s="19"/>
       <c r="HU1104" s="19"/>
       <c r="HV1104" s="19"/>
       <c r="HW1104" s="19"/>
     </row>
-    <row r="1105" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1105" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1105" s="19"/>
       <c r="HU1105" s="19"/>
       <c r="HV1105" s="19"/>
       <c r="HW1105" s="19"/>
     </row>
-    <row r="1106" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1106" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1106" s="19"/>
       <c r="HU1106" s="19"/>
       <c r="HV1106" s="19"/>
       <c r="HW1106" s="19"/>
     </row>
-    <row r="1107" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1107" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1107" s="19"/>
       <c r="HU1107" s="19"/>
       <c r="HV1107" s="19"/>
       <c r="HW1107" s="19"/>
     </row>
-    <row r="1110" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1110" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1110" s="19"/>
       <c r="HU1110" s="19"/>
       <c r="HV1110" s="19"/>
       <c r="HW1110" s="19"/>
     </row>
-    <row r="1111" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1111" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1111" s="19"/>
       <c r="HU1111" s="19"/>
       <c r="HV1111" s="19"/>
       <c r="HW1111" s="19"/>
     </row>
-    <row r="1113" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1113" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1113" s="19"/>
       <c r="HU1113" s="19"/>
       <c r="HV1113" s="19"/>
       <c r="HW1113" s="19"/>
     </row>
-    <row r="1114" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1114" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1114" s="19"/>
       <c r="HU1114" s="19"/>
       <c r="HV1114" s="19"/>
       <c r="HW1114" s="19"/>
     </row>
-    <row r="1115" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1115" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1115" s="19"/>
       <c r="HU1115" s="19"/>
       <c r="HV1115" s="19"/>
       <c r="HW1115" s="19"/>
     </row>
-    <row r="1116" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1116" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1116" s="19"/>
       <c r="HU1116" s="19"/>
       <c r="HV1116" s="19"/>
       <c r="HW1116" s="19"/>
     </row>
-    <row r="1117" spans="228:231" x14ac:dyDescent="0.25">
+    <row r="1117" spans="228:231" x14ac:dyDescent="0.3">
       <c r="HT1117" s="19"/>
       <c r="HU1117" s="19"/>
       <c r="HV1117" s="19"/>
       <c r="HW1117" s="19"/>
     </row>
-    <row r="1127" spans="228:234" x14ac:dyDescent="0.25">
+    <row r="1127" spans="228:234" x14ac:dyDescent="0.3">
       <c r="HT1127" s="20"/>
       <c r="HU1127" s="20"/>
       <c r="HV1127" s="20"/>
@@ -25236,74 +27173,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D1E735-F552-4DAA-90E2-11FC08F7635B}">
   <dimension ref="A1:AW97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
       <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
-      <c r="AA1" s="47" t="s">
+      <c r="AA1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
     </row>
-    <row r="2" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
       <c r="B2" s="10">
         <v>1997</v>
       </c>
@@ -25445,62 +27382,62 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41"/>
     </row>
-    <row r="4" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
@@ -25645,7 +27582,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>128</v>
       </c>
@@ -25698,7 +27635,7 @@
       <c r="AV5" s="3"/>
       <c r="AW5" s="3"/>
     </row>
-    <row r="6" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -25843,7 +27780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -25988,7 +27925,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -26133,7 +28070,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -26278,7 +28215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
@@ -26423,7 +28360,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="11" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>124</v>
       </c>
@@ -26568,7 +28505,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="12" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>129</v>
       </c>
@@ -26621,7 +28558,7 @@
       <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
     </row>
-    <row r="13" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -26766,7 +28703,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="14" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
@@ -26911,7 +28848,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="15" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -27056,7 +28993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -27201,7 +29138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -27346,7 +29283,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="18" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>130</v>
       </c>
@@ -27399,7 +29336,7 @@
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
     </row>
-    <row r="19" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -27452,7 +29389,7 @@
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
     </row>
-    <row r="20" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>11</v>
       </c>
@@ -27597,7 +29534,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="21" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>16</v>
       </c>
@@ -27650,7 +29587,7 @@
       <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
     </row>
-    <row r="22" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>5</v>
       </c>
@@ -27795,7 +29732,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="23" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
@@ -27940,7 +29877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -27993,7 +29930,7 @@
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
     </row>
-    <row r="25" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>11</v>
       </c>
@@ -28138,7 +30075,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="26" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>16</v>
       </c>
@@ -28191,7 +30128,7 @@
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
     </row>
-    <row r="27" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>5</v>
       </c>
@@ -28336,7 +30273,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="28" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>6</v>
       </c>
@@ -28481,7 +30418,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="29" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -28534,7 +30471,7 @@
       <c r="AV29" s="3"/>
       <c r="AW29" s="3"/>
     </row>
-    <row r="30" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>11</v>
       </c>
@@ -28679,7 +30616,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="31" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>16</v>
       </c>
@@ -28732,7 +30669,7 @@
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
     </row>
-    <row r="32" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>5</v>
       </c>
@@ -28877,7 +30814,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>6</v>
       </c>
@@ -29022,7 +30959,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="34" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -29075,7 +31012,7 @@
       <c r="AV34" s="3"/>
       <c r="AW34" s="3"/>
     </row>
-    <row r="35" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
@@ -29220,7 +31157,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>16</v>
       </c>
@@ -29273,7 +31210,7 @@
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
     </row>
-    <row r="37" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>5</v>
       </c>
@@ -29418,7 +31355,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>6</v>
       </c>
@@ -29563,7 +31500,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="39" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
@@ -29616,7 +31553,7 @@
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
     </row>
-    <row r="40" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>11</v>
       </c>
@@ -29761,7 +31698,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="41" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>16</v>
       </c>
@@ -29814,7 +31751,7 @@
       <c r="AV41" s="3"/>
       <c r="AW41" s="3"/>
     </row>
-    <row r="42" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>5</v>
       </c>
@@ -29959,7 +31896,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="43" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>6</v>
       </c>
@@ -30104,62 +32041,62 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="48"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="48"/>
-      <c r="AD44" s="48"/>
-      <c r="AE44" s="48"/>
-      <c r="AF44" s="48"/>
-      <c r="AG44" s="48"/>
-      <c r="AH44" s="48"/>
-      <c r="AI44" s="48"/>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="48"/>
-      <c r="AL44" s="48"/>
-      <c r="AM44" s="48"/>
-      <c r="AN44" s="48"/>
-      <c r="AO44" s="48"/>
-      <c r="AP44" s="48"/>
-      <c r="AQ44" s="48"/>
-      <c r="AR44" s="48"/>
-      <c r="AS44" s="48"/>
-      <c r="AT44" s="48"/>
-      <c r="AU44" s="48"/>
-      <c r="AV44" s="48"/>
-      <c r="AW44" s="48"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="39"/>
+      <c r="AD44" s="39"/>
+      <c r="AE44" s="39"/>
+      <c r="AF44" s="39"/>
+      <c r="AG44" s="39"/>
+      <c r="AH44" s="39"/>
+      <c r="AI44" s="39"/>
+      <c r="AJ44" s="39"/>
+      <c r="AK44" s="39"/>
+      <c r="AL44" s="39"/>
+      <c r="AM44" s="39"/>
+      <c r="AN44" s="39"/>
+      <c r="AO44" s="39"/>
+      <c r="AP44" s="39"/>
+      <c r="AQ44" s="39"/>
+      <c r="AR44" s="39"/>
+      <c r="AS44" s="39"/>
+      <c r="AT44" s="39"/>
+      <c r="AU44" s="39"/>
+      <c r="AV44" s="39"/>
+      <c r="AW44" s="39"/>
     </row>
-    <row r="45" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -30304,7 +32241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -30449,7 +32386,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="47" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -30594,7 +32531,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="48" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -30739,7 +32676,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -30884,7 +32821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -31029,7 +32966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>10</v>
       </c>
@@ -31174,7 +33111,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="52" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>124</v>
       </c>
@@ -31319,7 +33256,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="53" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
         <v>129</v>
       </c>
@@ -31372,7 +33309,7 @@
       <c r="AV53" s="3"/>
       <c r="AW53" s="3"/>
     </row>
-    <row r="54" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
@@ -31517,7 +33454,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="55" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>12</v>
       </c>
@@ -31662,7 +33599,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
@@ -31807,7 +33744,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="57" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>5</v>
       </c>
@@ -31952,7 +33889,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="58" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>6</v>
       </c>
@@ -32097,7 +34034,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="59" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>131</v>
       </c>
@@ -32150,7 +34087,7 @@
       <c r="AV59" s="3"/>
       <c r="AW59" s="3"/>
     </row>
-    <row r="60" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>21</v>
       </c>
@@ -32295,7 +34232,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="61" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -32440,7 +34377,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -32585,7 +34522,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="63" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>24</v>
       </c>
@@ -32783,7 +34720,7 @@
       <c r="AV64" s="3"/>
       <c r="AW64" s="3"/>
     </row>
-    <row r="65" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>25</v>
       </c>
@@ -32836,7 +34773,7 @@
       <c r="AV65" s="3"/>
       <c r="AW65" s="3"/>
     </row>
-    <row r="66" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>21</v>
       </c>
@@ -32981,7 +34918,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>22</v>
       </c>
@@ -33126,7 +35063,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="68" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>23</v>
       </c>
@@ -33271,7 +35208,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="69" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>24</v>
       </c>
@@ -33416,7 +35353,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>16</v>
       </c>
@@ -33469,7 +35406,7 @@
       <c r="AV70" s="3"/>
       <c r="AW70" s="3"/>
     </row>
-    <row r="71" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>26</v>
       </c>
@@ -33522,7 +35459,7 @@
       <c r="AV71" s="3"/>
       <c r="AW71" s="3"/>
     </row>
-    <row r="72" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>21</v>
       </c>
@@ -33667,7 +35604,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>22</v>
       </c>
@@ -33812,7 +35749,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="74" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>23</v>
       </c>
@@ -33957,7 +35894,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="75" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>24</v>
       </c>
@@ -34102,7 +36039,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="76" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>27</v>
       </c>
@@ -34155,7 +36092,7 @@
       <c r="AV76" s="3"/>
       <c r="AW76" s="3"/>
     </row>
-    <row r="77" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>21</v>
       </c>
@@ -34300,7 +36237,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="78" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>22</v>
       </c>
@@ -34445,7 +36382,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>23</v>
       </c>
@@ -34590,7 +36527,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="80" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>24</v>
       </c>
@@ -34735,7 +36672,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="81" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
         <v>132</v>
       </c>
@@ -34833,7 +36770,7 @@
       <c r="AV82" s="3"/>
       <c r="AW82" s="3"/>
     </row>
-    <row r="83" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>28</v>
       </c>
@@ -34882,7 +36819,7 @@
       <c r="AV83" s="3"/>
       <c r="AW83" s="3"/>
     </row>
-    <row r="84" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>11</v>
       </c>
@@ -35027,7 +36964,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="85" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>16</v>
       </c>
@@ -35080,7 +37017,7 @@
       <c r="AV85" s="3"/>
       <c r="AW85" s="3"/>
     </row>
-    <row r="86" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>5</v>
       </c>
@@ -35225,7 +37162,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="87" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>6</v>
       </c>
@@ -35370,7 +37307,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="88" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>29</v>
       </c>
@@ -35423,7 +37360,7 @@
       <c r="AV88" s="3"/>
       <c r="AW88" s="3"/>
     </row>
-    <row r="89" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>11</v>
       </c>
@@ -35568,7 +37505,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="90" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>16</v>
       </c>
@@ -35621,7 +37558,7 @@
       <c r="AV90" s="3"/>
       <c r="AW90" s="3"/>
     </row>
-    <row r="91" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>5</v>
       </c>
@@ -35766,7 +37703,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="92" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>6</v>
       </c>
@@ -35911,7 +37848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>30</v>
       </c>
@@ -35964,7 +37901,7 @@
       <c r="AV93" s="3"/>
       <c r="AW93" s="3"/>
     </row>
-    <row r="94" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>11</v>
       </c>
@@ -36109,7 +38046,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="95" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>16</v>
       </c>
@@ -36162,7 +38099,7 @@
       <c r="AV95" s="3"/>
       <c r="AW95" s="3"/>
     </row>
-    <row r="96" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>5</v>
       </c>
@@ -36307,7 +38244,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="97" spans="1:49" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:49" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>6</v>
       </c>
@@ -36472,25 +38409,25 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>138</v>
       </c>
       <c r="B4" t="s">
@@ -36515,58 +38452,58 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36577,103 +38514,153 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE520B20-E3C7-4DF8-A057-B23FBE3F4EB3}">
-  <dimension ref="A3:C20"/>
+  <dimension ref="A3:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="C4" s="42">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1</v>
+      </c>
+      <c r="E4" s="42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="42">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+      <c r="D5" s="42">
+        <v>1</v>
+      </c>
+      <c r="E5" s="42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="42">
+        <v>1</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1</v>
+      </c>
+      <c r="D6" s="42">
+        <v>1</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="42">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="42">
+        <v>1</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="42">
+        <v>1</v>
+      </c>
+      <c r="C9" s="42">
+        <v>1</v>
+      </c>
+      <c r="D9" s="42">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="42">
+        <v>6</v>
+      </c>
+      <c r="C10" s="42">
+        <v>6</v>
+      </c>
+      <c r="D10" s="42">
+        <v>6</v>
+      </c>
+      <c r="E10" s="42">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36684,122 +38671,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FE43F2-C96E-4885-B055-41C757319A2E}">
   <dimension ref="A1:Y93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
       <c r="Y1" s="24"/>
     </row>
-    <row r="2" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="U2" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="X2" s="39" t="s">
+      <c r="X2" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="Y2" s="39"/>
+      <c r="Y2" s="30"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
@@ -36874,7 +38861,7 @@
       </c>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -36949,7 +38936,7 @@
       </c>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>171</v>
       </c>
@@ -36959,11 +38946,11 @@
       <c r="C5" s="3">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>110</v>
+      <c r="D5" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E5" s="3">
+        <v>27.5</v>
       </c>
       <c r="F5" s="3">
         <v>31.8</v>
@@ -36977,23 +38964,23 @@
       <c r="I5" s="3">
         <v>35.9</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>67</v>
+      <c r="J5" s="3">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="K5" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>29.6</v>
       </c>
       <c r="M5" s="3">
         <v>32</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>68</v>
+      <c r="N5" s="3">
+        <v>23.1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>19.399999999999999</v>
       </c>
       <c r="P5" s="3">
         <v>28.3</v>
@@ -37001,14 +38988,14 @@
       <c r="Q5" s="3">
         <v>24.6</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>34</v>
+      <c r="R5" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="S5" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="T5" s="3">
+        <v>17.399999999999999</v>
       </c>
       <c r="U5" s="3">
         <v>21.6</v>
@@ -37024,7 +39011,7 @@
       </c>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>169</v>
       </c>
@@ -37099,7 +39086,7 @@
       </c>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>170</v>
       </c>
@@ -37133,8 +39120,8 @@
       <c r="K7" s="3">
         <v>32.5</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>89</v>
+      <c r="L7" s="3">
+        <v>22.1</v>
       </c>
       <c r="M7" s="3">
         <v>27.4</v>
@@ -37174,7 +39161,7 @@
       </c>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -37249,7 +39236,7 @@
       </c>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -37276,7 +39263,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -37305,7 +39292,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
@@ -37380,7 +39367,7 @@
       </c>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
@@ -37409,7 +39396,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -37484,7 +39471,7 @@
       </c>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
@@ -37559,7 +39546,7 @@
       </c>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -37586,7 +39573,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -37615,7 +39602,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -37690,7 +39677,7 @@
       </c>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
@@ -37719,7 +39706,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>5</v>
       </c>
@@ -37794,7 +39781,7 @@
       </c>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>6</v>
       </c>
@@ -37869,7 +39856,7 @@
       </c>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -37896,7 +39883,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -37925,7 +39912,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
@@ -38000,7 +39987,7 @@
       </c>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>16</v>
       </c>
@@ -38029,7 +40016,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>5</v>
       </c>
@@ -38104,7 +40091,7 @@
       </c>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>6</v>
       </c>
@@ -38179,7 +40166,7 @@
       </c>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -38206,7 +40193,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -38235,7 +40222,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>11</v>
       </c>
@@ -38310,7 +40297,7 @@
       </c>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>16</v>
       </c>
@@ -38339,7 +40326,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>5</v>
       </c>
@@ -38414,7 +40401,7 @@
       </c>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>6</v>
       </c>
@@ -38489,7 +40476,7 @@
       </c>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -38516,7 +40503,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -38545,7 +40532,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
@@ -38620,7 +40607,7 @@
       </c>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>16</v>
       </c>
@@ -38649,7 +40636,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>5</v>
       </c>
@@ -38724,7 +40711,7 @@
       </c>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>6</v>
       </c>
@@ -38799,15 +40786,15 @@
       </c>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>127</v>
       </c>
@@ -38882,7 +40869,7 @@
       </c>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -38957,7 +40944,7 @@
       </c>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -39032,7 +41019,7 @@
       </c>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -39107,7 +41094,7 @@
       </c>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -39182,7 +41169,7 @@
       </c>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -39257,7 +41244,7 @@
       </c>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>10</v>
       </c>
@@ -39332,7 +41319,7 @@
       </c>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>124</v>
       </c>
@@ -39407,7 +41394,7 @@
       </c>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
         <v>129</v>
       </c>
@@ -39436,7 +41423,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
@@ -39511,7 +41498,7 @@
       </c>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>12</v>
       </c>
@@ -39586,7 +41573,7 @@
       </c>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
@@ -39661,7 +41648,7 @@
       </c>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>5</v>
       </c>
@@ -39736,7 +41723,7 @@
       </c>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>6</v>
       </c>
@@ -39811,7 +41798,7 @@
       </c>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
         <v>131</v>
       </c>
@@ -39840,7 +41827,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>21</v>
       </c>
@@ -39915,7 +41902,7 @@
       </c>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -39990,7 +41977,7 @@
       </c>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -40065,7 +42052,7 @@
       </c>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
@@ -40140,7 +42127,7 @@
       </c>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="1:25" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>135</v>
       </c>
@@ -40169,7 +42156,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>25</v>
       </c>
@@ -40198,7 +42185,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>21</v>
       </c>
@@ -40273,7 +42260,7 @@
       </c>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>22</v>
       </c>
@@ -40348,7 +42335,7 @@
       </c>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>23</v>
       </c>
@@ -40423,7 +42410,7 @@
       </c>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>24</v>
       </c>
@@ -40498,7 +42485,7 @@
       </c>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
@@ -40527,7 +42514,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>26</v>
       </c>
@@ -40556,7 +42543,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>21</v>
       </c>
@@ -40631,7 +42618,7 @@
       </c>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>22</v>
       </c>
@@ -40706,7 +42693,7 @@
       </c>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>23</v>
       </c>
@@ -40781,7 +42768,7 @@
       </c>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>24</v>
       </c>
@@ -40856,7 +42843,7 @@
       </c>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>27</v>
       </c>
@@ -40885,7 +42872,7 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>21</v>
       </c>
@@ -40960,7 +42947,7 @@
       </c>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>22</v>
       </c>
@@ -41035,7 +43022,7 @@
       </c>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>23</v>
       </c>
@@ -41110,7 +43097,7 @@
       </c>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>24</v>
       </c>
@@ -41185,7 +43172,7 @@
       </c>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
         <v>132</v>
       </c>
@@ -41214,7 +43201,7 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
         <v>136</v>
       </c>
@@ -41243,7 +43230,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>28</v>
       </c>
@@ -41272,7 +43259,7 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>11</v>
       </c>
@@ -41347,7 +43334,7 @@
       </c>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>16</v>
       </c>
@@ -41376,7 +43363,7 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>5</v>
       </c>
@@ -41451,7 +43438,7 @@
       </c>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>6</v>
       </c>
@@ -41526,7 +43513,7 @@
       </c>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>29</v>
       </c>
@@ -41555,7 +43542,7 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>11</v>
       </c>
@@ -41630,7 +43617,7 @@
       </c>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>16</v>
       </c>
@@ -41659,7 +43646,7 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>5</v>
       </c>
@@ -41734,7 +43721,7 @@
       </c>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>6</v>
       </c>
@@ -41809,7 +43796,7 @@
       </c>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>30</v>
       </c>
@@ -41838,7 +43825,7 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>11</v>
       </c>
@@ -41913,7 +43900,7 @@
       </c>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>16</v>
       </c>
@@ -41942,7 +43929,7 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>5</v>
       </c>
@@ -42017,7 +44004,7 @@
       </c>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>6</v>
       </c>
@@ -42097,13 +44084,23 @@
     <mergeCell ref="B1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0D08161F532E1488290EA846EB94613" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96d0c4074a9b0fb6d46f9f076d4bc66f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e3077af0-6fc0-4200-a300-39d4b8ef3a1a" xmlns:ns3="2c697e34-8d4f-4da9-ba98-6e6ffd29aac3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97dfc2ab453347b96e33ca473669cd21" ns2:_="" ns3:_="">
     <xsd:import namespace="e3077af0-6fc0-4200-a300-39d4b8ef3a1a"/>
@@ -42286,15 +44283,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -42307,6 +44295,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E82752F3-85D5-4061-AF00-C9B29124220B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5564804-6E6F-475A-BF5E-F5108A5F529A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42325,14 +44321,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E82752F3-85D5-4061-AF00-C9B29124220B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F761EAC-0472-4B11-B4DA-39C5CA1E3D81}">
   <ds:schemaRefs>
